--- a/data/wookieMistakesSpring2022Games.xlsx
+++ b/data/wookieMistakesSpring2022Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/apa-rankings/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive.homedepot.com/personal/scott_r_berry_homedepot_com/Documents/apa-rankings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="11_F25DC773A252ABDACC1048B9E9184DC65ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F19FD59-D3EB-4739-9EEE-D3D55C398D29}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="11_F25DC773A252ABDACC1048B9E9184DC65ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73680127-F61A-3A49-BBE8-959594D27721}"/>
   <bookViews>
-    <workbookView xWindow="21675" yWindow="2925" windowWidth="15150" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21680" yWindow="2920" windowWidth="15160" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Week</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Jason Bohrer</t>
+  </si>
+  <si>
+    <t>Jason Liess</t>
+  </si>
+  <si>
+    <t>Andy Ackler</t>
   </si>
 </sst>
 </file>
@@ -390,26 +396,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -473,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -505,7 +511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -537,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -569,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -601,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -633,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -665,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -697,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -729,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -759,6 +765,166 @@
       </c>
       <c r="J11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/wookieMistakesSpring2022Games.xlsx
+++ b/data/wookieMistakesSpring2022Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive.homedepot.com/personal/scott_r_berry_homedepot_com/Documents/apa-rankings/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/apa-rankings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="11_F25DC773A252ABDACC1048B9E9184DC65ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73680127-F61A-3A49-BBE8-959594D27721}"/>
+  <xr:revisionPtr revIDLastSave="773" documentId="11_F25DC773A252ABDACC1048B9E9184DC65ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ACC93CC-150C-4A56-A819-6DA6BF67FB90}"/>
   <bookViews>
-    <workbookView xWindow="21680" yWindow="2920" windowWidth="15160" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21105" yWindow="405" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
   <si>
     <t>Week</t>
   </si>
@@ -396,26 +396,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -607,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -735,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -925,6 +925,1926 @@
       </c>
       <c r="J16">
         <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
